--- a/trabalho/Arquitetura Futura.xlsx
+++ b/trabalho/Arquitetura Futura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC725E42-733F-4E57-BD4C-15E25DAACCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6FD493-DDF5-40BA-B20E-EE4374A9806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29535" yWindow="735" windowWidth="21600" windowHeight="15345" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="What - Perspectiva Executiva" sheetId="3" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>Centralização do sistema de vendas, e integração com o ERP</t>
   </si>
   <si>
-    <t>Integração com o sistema de Projetos</t>
-  </si>
-  <si>
     <t>ERP - Modulo Financeiro</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>Mercadoria física que pode ser adiquirida por um consumidor</t>
+  </si>
+  <si>
+    <t>Integração com o sistema ERP</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,6 +635,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,25 +672,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1418,7 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1429,10 +1424,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1524,10 +1519,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1558,12 +1553,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1580,10 +1575,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="49" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -1592,18 +1587,18 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="49" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -1612,50 +1607,50 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="49" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -1664,18 +1659,18 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1684,24 +1679,24 @@
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="6" t="s">
         <v>46</v>
       </c>
@@ -1798,27 +1793,27 @@
         <v>22</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="23" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="57"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="24"/>
     </row>
@@ -1829,11 +1824,11 @@
       <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="23" t="s">
         <v>6</v>
       </c>
@@ -1843,7 +1838,7 @@
       <c r="J3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="57"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="24"/>
     </row>
@@ -1851,12 +1846,12 @@
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="30" t="s">
         <v>6</v>
       </c>
@@ -1866,9 +1861,9 @@
       <c r="H4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="24"/>
     </row>
@@ -1885,15 +1880,15 @@
       <c r="D5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="24"/>
     </row>
@@ -1901,12 +1896,12 @@
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="60"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="28" t="s">
         <v>7</v>
       </c>
@@ -1934,18 +1929,18 @@
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="61" t="s">
+      <c r="B7" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="57"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="23" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1950,7 @@
       <c r="J7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="57"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="18"/>
     </row>
@@ -1963,15 +1958,15 @@
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="60"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="31" t="s">
         <v>7</v>
       </c>
@@ -1994,13 +1989,13 @@
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="59"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="31" t="s">
         <v>7</v>
       </c>
@@ -2013,7 +2008,7 @@
       <c r="J9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="57"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="18"/>
     </row>
@@ -2021,22 +2016,22 @@
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="18"/>
     </row>
@@ -2044,15 +2039,15 @@
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="61" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="23" t="s">
         <v>7</v>
       </c>
@@ -2065,7 +2060,7 @@
       <c r="J11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="57"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="18"/>
     </row>
@@ -2147,20 +2142,20 @@
       <c r="A17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
       <c r="N17" s="10" t="s">
         <v>9</v>
       </c>
@@ -2185,120 +2180,120 @@
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="32"/>
     </row>
     <row r="19" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
       <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
       <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
+        <v>88</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="15"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
@@ -2359,18 +2354,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BE9555-9240-4CF6-9C4E-CE0765C3DC62}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -2446,7 +2441,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2454,10 +2449,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>85</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -2465,10 +2460,10 @@
         <v>44</v>
       </c>
       <c r="B10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>87</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2476,10 +2471,10 @@
         <v>45</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>89</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2490,7 +2485,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2498,10 +2493,10 @@
         <v>70</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2509,10 +2504,10 @@
         <v>52</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2520,10 +2515,10 @@
         <v>71</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2531,10 +2526,10 @@
         <v>47</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2542,32 +2537,32 @@
         <v>72</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/trabalho/Arquitetura Futura.xlsx
+++ b/trabalho/Arquitetura Futura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6FD493-DDF5-40BA-B20E-EE4374A9806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A636B104-C83D-4663-8A41-62384772A1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29535" yWindow="735" windowWidth="21600" windowHeight="15345" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="What - Perspectiva Executiva" sheetId="3" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>Processos desdobrados</t>
   </si>
   <si>
-    <t>Glossário de termos de negócio (lista das "coisas" de negócio)</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>Integração com o sistema ERP</t>
+  </si>
+  <si>
+    <t>Glossário de termos de negócio</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1425,7 +1425,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B1" s="46"/>
     </row>
@@ -1439,90 +1439,90 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1549,7 +1549,7 @@
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="C3" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -1590,19 +1590,19 @@
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="C5" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -1610,7 +1610,7 @@
       <c r="A6" s="54"/>
       <c r="B6" s="55"/>
       <c r="C6" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -1618,7 +1618,7 @@
       <c r="A7" s="54"/>
       <c r="B7" s="55"/>
       <c r="C7" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -1626,7 +1626,7 @@
       <c r="A8" s="54"/>
       <c r="B8" s="55"/>
       <c r="C8" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -1634,7 +1634,7 @@
       <c r="A9" s="54"/>
       <c r="B9" s="55"/>
       <c r="C9" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -1642,19 +1642,19 @@
       <c r="A10" s="48"/>
       <c r="B10" s="50"/>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>54</v>
-      </c>
       <c r="C11" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -1662,19 +1662,19 @@
       <c r="A12" s="48"/>
       <c r="B12" s="50"/>
       <c r="C12" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="C13" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -1682,7 +1682,7 @@
       <c r="A14" s="52"/>
       <c r="B14" s="51"/>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -1690,7 +1690,7 @@
       <c r="A15" s="52"/>
       <c r="B15" s="51"/>
       <c r="C15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -1698,7 +1698,7 @@
       <c r="A16" s="52"/>
       <c r="B16" s="51"/>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -1733,11 +1733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1752,7 +1752,7 @@
     <col min="9" max="9" width="5.7109375" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="12" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="34.5703125" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -1763,42 +1763,42 @@
     <row r="1" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="L1" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -1808,10 +1808,10 @@
       <c r="G2" s="5"/>
       <c r="H2" s="17"/>
       <c r="I2" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -1819,10 +1819,10 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="44"/>
@@ -1830,13 +1830,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="5"/>
       <c r="H3" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -1844,22 +1844,22 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="1"/>
       <c r="F4" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1869,20 +1869,20 @@
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1894,61 +1894,61 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="1"/>
       <c r="F7" s="45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1956,57 +1956,57 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="44"/>
       <c r="E9" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -2014,19 +2014,19 @@
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="5"/>
@@ -2037,28 +2037,28 @@
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -2066,14 +2066,14 @@
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2083,19 +2083,19 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2105,19 +2105,19 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2127,7 +2127,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2140,7 +2140,7 @@
     </row>
     <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="57" t="s">
         <v>1</v>
@@ -2157,13 +2157,13 @@
       <c r="L17" s="57"/>
       <c r="M17" s="57"/>
       <c r="N17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -2176,12 +2176,12 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="56" t="s">
         <v>56</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>57</v>
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="56"/>
@@ -2196,12 +2196,12 @@
       <c r="M18" s="56"/>
       <c r="N18" s="32"/>
     </row>
-    <row r="19" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="56" t="s">
         <v>58</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>59</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="56"/>
@@ -2216,12 +2216,12 @@
       <c r="M19" s="56"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="56" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>61</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="56"/>
@@ -2236,12 +2236,12 @@
       <c r="M20" s="56"/>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="56" t="s">
         <v>64</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>65</v>
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="56"/>
@@ -2256,12 +2256,12 @@
       <c r="M21" s="56"/>
       <c r="N21" s="13"/>
     </row>
-    <row r="22" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="56"/>
       <c r="D22" s="56"/>
@@ -2276,12 +2276,12 @@
       <c r="M22" s="56"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="56" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>63</v>
       </c>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
@@ -2354,7 +2354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BE9555-9240-4CF6-9C4E-CE0765C3DC62}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2362,207 +2362,207 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>82</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>86</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/trabalho/Arquitetura Futura.xlsx
+++ b/trabalho/Arquitetura Futura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A636B104-C83D-4663-8A41-62384772A1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F5EE04-1D36-4567-B52A-DCA7B20EC2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="What - Perspectiva Executiva" sheetId="3" r:id="rId1"/>
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1737,7 +1737,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
